--- a/data/Studio_Press_2025_4.xlsx
+++ b/data/Studio_Press_2025_4.xlsx
@@ -844,12 +844,12 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>amir</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>saeed</t>
         </is>
       </c>
     </row>
@@ -883,17 +883,17 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>amir</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>saeed</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -993,17 +993,17 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>amir</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>saeed</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
+          <t>vahid</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
           <t>hakim</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Hassan</t>
-        </is>
-      </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>amir</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>hakim</t>
+          <t>saeed</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>hakim</t>
+          <t>amir</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>saeed</t>
         </is>
       </c>
     </row>
@@ -1103,17 +1103,17 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1125,17 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>hakim</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>amir</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>saeed</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1147,17 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>hakim</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
     </row>
